--- a/behavioral_August2019/psychopy experiment/whichRole.xlsx
+++ b/behavioral_August2019/psychopy experiment/whichRole.xlsx
@@ -44,7 +44,17 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>What are the job titles of both of the business people?</t>
+      <t>What is each business person’s job title?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>How much money is at stake in the initial offer made?</t>
     </r>
     <r>
       <rPr>
@@ -57,13 +67,44 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">What is the name of the other industry competitor? </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>How much money is at stake in the initial offer made?</t>
+      <t>With what gesture do the business partners secure the deal?</t>
+    </r>
+  </si>
+  <si>
+    <t>Is the deal fair?</t>
+  </si>
+  <si>
+    <t>How long does it take to make the deal?</t>
+  </si>
+  <si>
+    <t>Business Reporter</t>
+  </si>
+  <si>
+    <t>jobphotos/business_reporter.jpg</t>
+  </si>
+  <si>
+    <t>How is the restaurant decorated?</t>
+  </si>
+  <si>
+    <t>What are the menus like?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What does each client order?</t>
     </r>
     <r>
       <rPr>
@@ -76,7 +117,39 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">What is the name of the other industry competitor? </t>
+    <t>How do the clients like the food?</t>
+  </si>
+  <si>
+    <t>How old is the waiter?</t>
+  </si>
+  <si>
+    <t>What meal is being served?</t>
+  </si>
+  <si>
+    <t>Restaurant Critic</t>
+  </si>
+  <si>
+    <t>jobphotos/restaurant_critic.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What object is the initiator of the interaction holding when he/she first notices the other person?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What is the initial question that begins the conversation between the couple?</t>
+    </r>
   </si>
   <si>
     <r>
@@ -85,35 +158,17 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>With what gesture do the business partners secure the deal?</t>
-    </r>
-  </si>
-  <si>
-    <t>Is the deal fair?</t>
-  </si>
-  <si>
-    <t>How long does it take to make the deal?</t>
-  </si>
-  <si>
-    <t>Business Reporter</t>
-  </si>
-  <si>
-    <t>jobphotos/business_reporter.jpg</t>
-  </si>
-  <si>
-    <t>How is the restaurant decorated?</t>
-  </si>
-  <si>
-    <t>What are the menus like?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What do the clients order?</t>
+      <t>When will be the next time the couple meets and for what occasion?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What time is it when the couple parts?</t>
     </r>
     <r>
       <rPr>
@@ -126,39 +181,16 @@
     </r>
   </si>
   <si>
-    <t>How do the clients like the food?</t>
-  </si>
-  <si>
-    <t>How old is the waiter?</t>
-  </si>
-  <si>
-    <t>What meal is being served?</t>
-  </si>
-  <si>
-    <t>Restaurant Critic</t>
-  </si>
-  <si>
-    <t>jobphotos/restaurant_critic.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What object is the initiator of the interaction holding when he/she first notices the other person?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What is the initial question that begins the conversation between the couple?</t>
-    </r>
+    <t>Is the couple going to get married?</t>
+  </si>
+  <si>
+    <t>Who shows more interest?</t>
+  </si>
+  <si>
+    <t>Matchmaker</t>
+  </si>
+  <si>
+    <t>jobphotos/matchmaker.jpg</t>
   </si>
   <si>
     <r>
@@ -167,17 +199,20 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>When will be the next time the couple meets and for what occasion?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What time is it when the couple parts?</t>
+      <t>For how long has the couple been dating?</t>
+    </r>
+  </si>
+  <si>
+    <t>How many diamonds are on the ring, and what is the diamond color?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>In/on what item is the ring presented?</t>
     </r>
     <r>
       <rPr>
@@ -190,25 +225,13 @@
     </r>
   </si>
   <si>
-    <t>Is the couple going to get married?</t>
-  </si>
-  <si>
-    <t>Who shows more interest?</t>
-  </si>
-  <si>
-    <t>Matchmaker</t>
-  </si>
-  <si>
-    <t>jobphotos/matchmaker.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>For how many years has the couple been dating?</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Who does the new fiancee text first?</t>
     </r>
     <r>
       <rPr>
@@ -221,17 +244,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">How many diamonds are on the ring and what is the diamond color?
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>In/on what item is the ring presented?</t>
+    <t>Is anyone taking pictures of the proposal?</t>
+  </si>
+  <si>
+    <t>How long does the proposal take?</t>
+  </si>
+  <si>
+    <t>Wedding Planner</t>
+  </si>
+  <si>
+    <t>jobphotos/weddingplanner.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>When the clients arrive at the airport, how much time do they have until their flight departs?</t>
     </r>
     <r>
       <rPr>
@@ -246,11 +277,21 @@
   <si>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What is the reason for the hold-up at security?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>Who does the new fiancee text first?</t>
+      <t>Toward which gate are the clients walking?</t>
     </r>
     <r>
       <rPr>
@@ -263,16 +304,27 @@
     </r>
   </si>
   <si>
-    <t>Is anyone taking pictures of the proposal?</t>
-  </si>
-  <si>
-    <t>How long does the proposal take?</t>
-  </si>
-  <si>
-    <t>Wedding Planner</t>
-  </si>
-  <si>
-    <t>jobphotos/weddingplanner.jpg</t>
+    <t xml:space="preserve">What section and seat does each client sit in on the plane?
+</t>
+  </si>
+  <si>
+    <t>Are the security guards friendly or rude?</t>
+  </si>
+  <si>
+    <t>Are the airport restrooms clean?</t>
+  </si>
+  <si>
+    <t>Airport Customer Experience Manager</t>
+  </si>
+  <si>
+    <t>jobphotos/acem.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the grocery store like upon entering?
+</t>
+  </si>
+  <si>
+    <t>What items do the clients pick out to buy?</t>
   </si>
   <si>
     <r>
@@ -281,7 +333,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>When the clients arrive at the airport, how much time do they have until their flight departs?</t>
+      <t>How many checkout lanes are open, and which one do the clients step into?</t>
     </r>
     <r>
       <rPr>
@@ -296,21 +348,11 @@
   <si>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What is the reason for the hold-up at security?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>Toward which gate are the clients walking?</t>
+      <t>How much are the groceries, and what method of payment do the clients use?</t>
     </r>
     <r>
       <rPr>
@@ -323,37 +365,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">What section and seat does each client sit in on the plane?
-</t>
-  </si>
-  <si>
-    <t>Are the security guards friendly or rude?</t>
-  </si>
-  <si>
-    <t>Are the airport restrooms clean?</t>
-  </si>
-  <si>
-    <t>Airport Customer Experience Manager</t>
-  </si>
-  <si>
-    <t>jobphotos/acem.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the grocery store like upon entering?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What items do the clients pick out?
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>How many checkout lanes are open and which one do the clients step into?</t>
+    <t>How long does it take for the cashier to scan all of the customers’ groceries?</t>
+  </si>
+  <si>
+    <t>What type of grocery bags do the clients use?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Grocery Store Customer Experience Manager</t>
     </r>
     <r>
       <rPr>
@@ -366,13 +390,20 @@
     </r>
   </si>
   <si>
+    <t>jobphotos/gscem.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the lecture hall like?
+</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>How much are the groceries and what method of payment do the clients use?</t>
+      <t>What class are the students in, and what is the day’s lecture about?</t>
     </r>
     <r>
       <rPr>
@@ -385,19 +416,13 @@
     </r>
   </si>
   <si>
-    <t>How long does it take for the cashier to scan all of the customers’ groceries?</t>
-  </si>
-  <si>
-    <t>What type of grocery bags do the clients use?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>Grocery Store Customer Experience Manager</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What is something taught in lecture?</t>
     </r>
     <r>
       <rPr>
@@ -410,20 +435,38 @@
     </r>
   </si>
   <si>
-    <t>jobphotos/gscem.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the lecture hall like?
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What class are the students in and what is the day’s lecture about?</t>
+    <t>What is the next assessment/assignment for the class, and when is it scheduled/due?</t>
+  </si>
+  <si>
+    <t>Are the students paying attention?</t>
+  </si>
+  <si>
+    <t>Are the desks comfortable?</t>
+  </si>
+  <si>
+    <t>Dean of Academic Studies</t>
+  </si>
+  <si>
+    <t>jobphotos/dean.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>For how long has the initiator of the breakup been thinking about breaking up with his/her partner?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What is the initial reason stated by the initiator for why he/she is breaking up?</t>
     </r>
     <r>
       <rPr>
@@ -436,73 +479,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What is something taught in lecture?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">Does the person who is being broken up with want to break up, and what’s the reason stated by the person being broken up with that he/she does or does not want to break up?
 </t>
-    </r>
-  </si>
-  <si>
-    <t>What is the next assessment/assignment in class and when is it scheduled/due?</t>
-  </si>
-  <si>
-    <t>Are the students paying attention?</t>
-  </si>
-  <si>
-    <t>Are the desks comfortable?</t>
-  </si>
-  <si>
-    <t>Dean of Academic Studies</t>
-  </si>
-  <si>
-    <t>jobphotos/dean.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>For how long has the initiator of the breakup been thinking about breaking up with his/her partner?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What is the initial reason stated by the initiator for why he/she is breaking up?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Does the person who is being broken up with want to break up and what’s the reason stated by the person being broken up with that he/she does or does not want to break up?</t>
-  </si>
-  <si>
-    <t>What objects does either partner want back?</t>
+  </si>
+  <si>
+    <t>Who wants what items back as a result of the breakup?</t>
   </si>
   <si>
     <t>Does the person being broken up with expect that this is coming?</t>
@@ -568,12 +549,12 @@
       <name val="Times"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <color indexed="8"/>
       <name val="Times"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times"/>
     </font>
@@ -762,7 +743,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -780,7 +761,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -798,13 +779,13 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -813,10 +794,10 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">

--- a/behavioral_August2019/psychopy experiment/whichRole.xlsx
+++ b/behavioral_August2019/psychopy experiment/whichRole.xlsx
@@ -479,8 +479,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Does the person who is being broken up with want to break up, and what’s the reason stated by the person being broken up with that he/she does or does not want to break up?
-</t>
+    <t>Does the person who is being broken up with want to break up, and what’s the reason stated by them for this?</t>
   </si>
   <si>
     <t>Who wants what items back as a result of the breakup?</t>
